--- a/data/BTS/TRPT/TVT_historical - Rural - Annual.xlsx
+++ b/data/BTS/TRPT/TVT_historical - Rural - Annual.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,119 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Interstate</t>
-  </si>
-  <si>
-    <t>Other Arterial</t>
-  </si>
-  <si>
-    <t>Other than</t>
-  </si>
-  <si>
-    <t>All Systems</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,107 +366,173 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Interstate</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>200173</v>
@@ -678,9 +631,11 @@
         <v>218734</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Other Arterial</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>330866</v>
@@ -779,9 +734,11 @@
         <v>317625</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Other than</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>337839</v>
@@ -880,9 +837,11 @@
         <v>280202</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>All Systems</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>868878</v>

--- a/data/BTS/TRPT/TVT_historical - Rural - Annual.xlsx
+++ b/data/BTS/TRPT/TVT_historical - Rural - Annual.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,11 @@
           <t>2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -628,7 +633,10 @@
         <v>226588</v>
       </c>
       <c r="AG2" t="n">
-        <v>218734</v>
+        <v>268861</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>19020</v>
       </c>
     </row>
     <row r="3">
@@ -731,7 +739,10 @@
         <v>342887</v>
       </c>
       <c r="AG3" t="n">
-        <v>317625</v>
+        <v>391362</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>28053</v>
       </c>
     </row>
     <row r="4">
@@ -834,7 +845,10 @@
         <v>305133</v>
       </c>
       <c r="AG4" t="n">
-        <v>280202</v>
+        <v>349301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>24755</v>
       </c>
     </row>
     <row r="5">
@@ -937,7 +951,10 @@
         <v>874608</v>
       </c>
       <c r="AG5" t="n">
-        <v>816561</v>
+        <v>1009525</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>71828</v>
       </c>
     </row>
   </sheetData>
